--- a/Systematic_review/PAI_PROBAST_assessment_KH_CM.xlsx
+++ b/Systematic_review/PAI_PROBAST_assessment_KH_CM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meinkcha.PSYCHOLOGIE\Documents\GitHub\PAI_paper_analysis_new\Systematic_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7391C267-3641-4DF3-AB00-7157B36A6063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B34EC-B981-435E-8E1A-D07BDD165DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{B8749642-3BAE-4D9E-8344-3A51005E59D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10310" xr2:uid="{B8749642-3BAE-4D9E-8344-3A51005E59D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="422">
   <si>
     <t>Study</t>
   </si>
@@ -852,9 +852,6 @@
     <t>RCT (STEPd)</t>
   </si>
   <si>
-    <t>RCT (STEPd &amp; FreqMesh)</t>
-  </si>
-  <si>
     <t>out-of-sample</t>
   </si>
   <si>
@@ -1453,13 +1450,22 @@
     <t>Please note that the rating is exactly the same as for Hautmann et al., 2023; ADHD symptoms; RCT</t>
   </si>
   <si>
-    <t xml:space="preserve">same way as in model development? </t>
-  </si>
-  <si>
     <t>model development studies only</t>
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>RCT (FreqMesh as external dataset); Please note that we rated the external validation of the model developed in the sensitivity analysis (not in the main analysis) here. This model differs from the one internally validated in the main analysis by being trained only on overlapping variables. We made this decision because it provides a less biased external validation. Additionally, considering and rating all models developed and externally validated in the study (eight in total) would have led to an overrepresentation of this study.</t>
+  </si>
+  <si>
+    <t>external validation; we assume that there is no data leakage</t>
+  </si>
+  <si>
+    <t>We rated 4.8.1 and 4.8.2 for external validation studies but not 4.8, as this question is originally not rated for validation studies in PROBAST. The reason for rating our own tailored questions (4.8.1 and 4.8.2) was that we considered external validation studies to have low risk of bias in terms of both questions. Thus, including them when examing the relation between the risk of bias (in 4.8.1 and 4.8.2) and the utility of the PAI (Cohen´s d)led to a larger variaty of risk of bias ratings.</t>
+  </si>
+  <si>
+    <t>RCT (STEPd  as external dataset)</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1609,8 +1615,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1752,9 +1757,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3455A071-AD0F-4A1F-8908-8C9716A107AB}" name="Tabelle2" displayName="Tabelle2" ref="A2:BB27" totalsRowShown="0">
   <autoFilter ref="A2:BB27" xr:uid="{4EB72098-F913-4644-BC0E-0798444B520C}"/>
-  <sortState ref="A3:BB27">
-    <sortCondition ref="AJ2:AJ27"/>
-  </sortState>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{BCDF3E72-05D2-4819-AF22-E6ED6B4BC84A}" name="Study"/>
     <tableColumn id="2" xr3:uid="{70D5B701-C2D4-4C51-A55A-0870FC89F08C}" name="1.1 Were appropriate data sources used, e.g., cohort, RCT, or nested case–control study data?" dataDxfId="26"/>
@@ -2149,64 +2151,64 @@
   <dimension ref="A1:BB27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT22" sqref="AT22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="25.81640625" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" customWidth="1"/>
     <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="18.140625" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" customWidth="1"/>
+    <col min="25" max="25" width="18.1796875" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" customWidth="1"/>
     <col min="28" max="28" width="10" customWidth="1"/>
     <col min="29" max="29" width="6" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" customWidth="1"/>
-    <col min="34" max="34" width="15.85546875" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" customWidth="1"/>
-    <col min="36" max="36" width="15.85546875" customWidth="1"/>
+    <col min="30" max="30" width="10.1796875" customWidth="1"/>
+    <col min="31" max="31" width="14.54296875" customWidth="1"/>
+    <col min="32" max="32" width="11.54296875" customWidth="1"/>
+    <col min="33" max="33" width="15.54296875" customWidth="1"/>
+    <col min="34" max="34" width="15.81640625" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" customWidth="1"/>
+    <col min="36" max="36" width="15.81640625" customWidth="1"/>
     <col min="37" max="37" width="38" customWidth="1"/>
-    <col min="38" max="38" width="10.85546875" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="14.140625" customWidth="1"/>
-    <col min="41" max="41" width="6.42578125" customWidth="1"/>
-    <col min="42" max="42" width="13.140625" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" customWidth="1"/>
-    <col min="45" max="45" width="25.5703125" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="13.140625" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" customWidth="1"/>
+    <col min="38" max="38" width="10.81640625" customWidth="1"/>
+    <col min="39" max="39" width="6.54296875" customWidth="1"/>
+    <col min="40" max="40" width="14.1796875" customWidth="1"/>
+    <col min="41" max="41" width="6.453125" customWidth="1"/>
+    <col min="42" max="42" width="13.1796875" customWidth="1"/>
+    <col min="43" max="43" width="9.453125" customWidth="1"/>
+    <col min="45" max="45" width="25.54296875" customWidth="1"/>
+    <col min="46" max="46" width="13.1796875" customWidth="1"/>
+    <col min="47" max="47" width="19.453125" customWidth="1"/>
+    <col min="48" max="48" width="13.1796875" customWidth="1"/>
+    <col min="49" max="49" width="11.453125" customWidth="1"/>
     <col min="50" max="50" width="13" customWidth="1"/>
-    <col min="51" max="51" width="8.140625" customWidth="1"/>
-    <col min="52" max="52" width="17.42578125" customWidth="1"/>
-    <col min="53" max="53" width="8.85546875" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" customWidth="1"/>
-    <col min="55" max="55" width="29.85546875" customWidth="1"/>
+    <col min="51" max="51" width="8.1796875" customWidth="1"/>
+    <col min="52" max="52" width="17.453125" customWidth="1"/>
+    <col min="53" max="53" width="8.81640625" customWidth="1"/>
+    <col min="54" max="54" width="14.81640625" customWidth="1"/>
+    <col min="55" max="55" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>16</v>
@@ -2296,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>17</v>
@@ -2308,7 +2310,7 @@
         <v>7</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>8</v>
@@ -2338,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>61</v>
@@ -2347,55 +2349,55 @@
         <v>49</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN2" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AP2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AS2" s="6" t="s">
         <v>231</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AV2" s="6" t="s">
         <v>22</v>
@@ -2410,267 +2412,295 @@
         <v>20</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BA2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="BB2" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG3" s="14"/>
+      <c r="AH3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS3" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT3" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU3" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AV3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:54" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG4" s="14"/>
+      <c r="AH4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT4" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU4" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>313</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>326</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>279</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>313</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>202</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -2682,7 +2712,7 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
@@ -2712,37 +2742,34 @@
         <v>23</v>
       </c>
       <c r="AA5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE5" t="s">
         <v>242</v>
       </c>
-      <c r="AB5" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>227</v>
-      </c>
       <c r="AF5" t="s">
         <v>23</v>
       </c>
       <c r="AH5" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AJ5" t="s">
         <v>93</v>
       </c>
       <c r="AK5" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="AL5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="s">
         <v>23</v>
@@ -2754,13 +2781,13 @@
         <v>323</v>
       </c>
       <c r="AS5" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="AT5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AV5" t="s">
         <v>93</v>
@@ -2769,15 +2796,15 @@
         <v>109</v>
       </c>
       <c r="AZ5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -2786,13 +2813,11 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>268</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -2804,19 +2829,19 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P6" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R6" t="s">
         <v>23</v>
       </c>
       <c r="S6" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="T6" t="s">
         <v>23</v>
@@ -2828,37 +2853,37 @@
         <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="Z6" t="s">
         <v>23</v>
       </c>
       <c r="AA6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD6" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="AE6" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="AF6" t="s">
         <v>23</v>
       </c>
       <c r="AH6" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AJ6" t="s">
         <v>93</v>
       </c>
       <c r="AK6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AL6" t="s">
         <v>23</v>
@@ -2867,19 +2892,19 @@
         <v>23</v>
       </c>
       <c r="AP6" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="AR6" t="s">
         <v>324</v>
       </c>
       <c r="AS6" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="AT6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AV6" t="s">
         <v>93</v>
@@ -2888,27 +2913,28 @@
         <v>109</v>
       </c>
       <c r="AZ6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
+      <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -2920,7 +2946,7 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -2932,7 +2958,7 @@
         <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="T7" t="s">
         <v>23</v>
@@ -2950,7 +2976,7 @@
         <v>23</v>
       </c>
       <c r="AA7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AB7" t="s">
         <v>313</v>
@@ -2959,7 +2985,7 @@
         <v>93</v>
       </c>
       <c r="AE7" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="AF7" t="s">
         <v>23</v>
@@ -2968,13 +2994,10 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AJ7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="s">
         <v>23</v>
@@ -2986,16 +3009,16 @@
         <v>93</v>
       </c>
       <c r="AR7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AS7" t="s">
         <v>233</v>
       </c>
       <c r="AT7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AV7" t="s">
         <v>93</v>
@@ -3004,15 +3027,15 @@
         <v>109</v>
       </c>
       <c r="AZ7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>297</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -3021,7 +3044,10 @@
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>205</v>
       </c>
       <c r="F8" t="s">
         <v>313</v>
@@ -3036,19 +3062,19 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P8" t="s">
         <v>23</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="R8" t="s">
         <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="T8" t="s">
         <v>23</v>
@@ -3057,40 +3083,40 @@
         <v>23</v>
       </c>
       <c r="X8" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>270</v>
       </c>
       <c r="Z8" t="s">
         <v>23</v>
       </c>
       <c r="AA8" t="s">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="AB8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD8" t="s">
         <v>93</v>
       </c>
       <c r="AE8" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="AF8" t="s">
         <v>23</v>
       </c>
       <c r="AH8" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AJ8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AK8" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="AL8" t="s">
         <v>23</v>
@@ -3102,33 +3128,33 @@
         <v>93</v>
       </c>
       <c r="AR8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AS8" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AT8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AU8" t="s">
-        <v>281</v>
-      </c>
-      <c r="AV8" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV8" t="s">
         <v>93</v>
       </c>
       <c r="AX8" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AZ8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -3139,9 +3165,8 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="20"/>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -3153,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P9" t="s">
         <v>23</v>
@@ -3183,31 +3208,28 @@
         <v>23</v>
       </c>
       <c r="AA9" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="AB9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD9" t="s">
         <v>93</v>
       </c>
       <c r="AE9" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="AF9" t="s">
         <v>23</v>
       </c>
       <c r="AH9" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AJ9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="s">
         <v>23</v>
@@ -3219,48 +3241,48 @@
         <v>93</v>
       </c>
       <c r="AR9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AS9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AT9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AU9" t="s">
-        <v>281</v>
-      </c>
-      <c r="AV9" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="AV9" t="s">
         <v>93</v>
       </c>
       <c r="AX9" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AZ9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -3272,7 +3294,7 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
@@ -3284,7 +3306,7 @@
         <v>23</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="T10" t="s">
         <v>23</v>
@@ -3302,166 +3324,159 @@
         <v>23</v>
       </c>
       <c r="AA10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AB10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>278</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>313</v>
       </c>
-      <c r="AD10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG10" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>331</v>
-      </c>
-      <c r="AL10" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM10" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>281</v>
-      </c>
-      <c r="AV10" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>314</v>
-      </c>
       <c r="BB10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>238</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>313</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="R11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" t="s">
-        <v>92</v>
-      </c>
-      <c r="T11" t="s">
-        <v>23</v>
-      </c>
-      <c r="V11" t="s">
-        <v>23</v>
-      </c>
-      <c r="X11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14" t="s">
         <v>93</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>102</v>
+        <v>367</v>
       </c>
       <c r="Z11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="AA11" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG11" s="20" t="s">
-        <v>417</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG11" s="14"/>
       <c r="AH11" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ11" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>93</v>
       </c>
       <c r="AK11" t="s">
-        <v>382</v>
-      </c>
-      <c r="AL11" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM11" s="20" t="s">
-        <v>418</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM11" s="14"/>
       <c r="AN11" s="14" t="s">
         <v>23</v>
       </c>
@@ -3471,52 +3486,55 @@
       </c>
       <c r="AQ11" s="14"/>
       <c r="AR11" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AS11" s="14" t="s">
-        <v>239</v>
+        <v>389</v>
       </c>
       <c r="AT11" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AU11" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="AV11" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="AV11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>222</v>
+        <v>414</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>415</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
         <v>23</v>
       </c>
@@ -3526,20 +3544,20 @@
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>107</v>
+        <v>367</v>
       </c>
       <c r="R12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>98</v>
+        <v>370</v>
       </c>
       <c r="T12" s="14" t="s">
         <v>23</v>
@@ -3550,40 +3568,42 @@
       </c>
       <c r="W12" s="14"/>
       <c r="X12" s="14" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="Z12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="AA12" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>23</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="14"/>
       <c r="AH12" t="s">
         <v>93</v>
       </c>
       <c r="AI12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ12" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>93</v>
       </c>
       <c r="AK12" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="AL12" t="s">
         <v>23</v>
@@ -3598,48 +3618,51 @@
       </c>
       <c r="AQ12" s="14"/>
       <c r="AR12" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AS12" s="14" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="AT12" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU12" s="14" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="AV12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AX12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>347</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
@@ -3655,20 +3678,20 @@
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>369</v>
+        <v>102</v>
       </c>
       <c r="R13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T13" s="14" t="s">
         <v>23</v>
@@ -3679,44 +3702,44 @@
       </c>
       <c r="W13" s="14"/>
       <c r="X13" s="14" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="Z13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="AA13" s="14" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="AB13" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AE13" s="14" t="s">
         <v>376</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="AG13" s="14"/>
       <c r="AH13" t="s">
         <v>93</v>
       </c>
       <c r="AI13" t="s">
-        <v>379</v>
-      </c>
-      <c r="AJ13" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>93</v>
       </c>
       <c r="AK13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL13" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="AM13" s="14"/>
@@ -3729,16 +3752,16 @@
       </c>
       <c r="AQ13" s="14"/>
       <c r="AR13" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AS13" s="14" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="AT13" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU13" s="14" t="s">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="AV13" s="14" t="s">
         <v>93</v>
@@ -3749,416 +3772,363 @@
       </c>
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BA13" s="14"/>
       <c r="BB13" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>313</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14" t="s">
+      <c r="BB14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>312</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" t="s">
+        <v>293</v>
+      </c>
+      <c r="T15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" t="s">
+        <v>23</v>
+      </c>
+      <c r="X15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>322</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>313</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y14" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA14" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB14" s="14" t="s">
+      <c r="BB15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" t="s">
         <v>313</v>
       </c>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE14" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG14" s="14"/>
-      <c r="AH14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>381</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>386</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AS14" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="AT14" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU14" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="AV14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>415</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14" t="s">
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>312</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" t="s">
+        <v>23</v>
+      </c>
+      <c r="X16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>322</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB15" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE15" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG15" s="14"/>
-      <c r="AH15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>386</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AS15" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="AT15" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU15" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="AV15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>348</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA16" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB16" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE16" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF16" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG16" s="14"/>
-      <c r="AH16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>387</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>383</v>
-      </c>
-      <c r="AL16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AS16" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT16" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU16" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="AV16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -4167,159 +4137,186 @@
       <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" t="s">
-        <v>314</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="E17" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="P17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="R17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" t="s">
-        <v>98</v>
-      </c>
-      <c r="T17" t="s">
-        <v>23</v>
-      </c>
-      <c r="V17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X17" t="s">
-        <v>23</v>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="Y17" t="s">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="Z17" t="s">
         <v>23</v>
       </c>
       <c r="AA17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB17" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE17" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG17" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI17" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK17" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS17" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT17" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU17" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AD17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>323</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>235</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" t="s">
-        <v>313</v>
-      </c>
-      <c r="P18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="R18" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" t="s">
-        <v>293</v>
-      </c>
-      <c r="T18" t="s">
-        <v>23</v>
-      </c>
-      <c r="V18" t="s">
-        <v>23</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14" t="s">
         <v>93</v>
       </c>
       <c r="Y18" t="s">
@@ -4329,75 +4326,94 @@
         <v>23</v>
       </c>
       <c r="AA18" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB18" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE18" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG18" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI18" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK18" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS18" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT18" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU18" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AD18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>323</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>280</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>267</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -4409,7 +4425,7 @@
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P19" t="s">
         <v>23</v>
@@ -4421,7 +4437,7 @@
         <v>23</v>
       </c>
       <c r="S19" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="T19" t="s">
         <v>23</v>
@@ -4439,19 +4455,19 @@
         <v>23</v>
       </c>
       <c r="AA19" t="s">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="AB19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD19" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AF19" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="s">
         <v>23</v>
@@ -4460,7 +4476,10 @@
         <v>212</v>
       </c>
       <c r="AJ19" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>327</v>
       </c>
       <c r="AL19" t="s">
         <v>23</v>
@@ -4469,19 +4488,19 @@
         <v>23</v>
       </c>
       <c r="AP19" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="s">
         <v>323</v>
       </c>
       <c r="AS19" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="AT19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU19" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AV19" t="s">
         <v>93</v>
@@ -4490,15 +4509,15 @@
         <v>109</v>
       </c>
       <c r="AZ19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -4507,9 +4526,11 @@
         <v>240</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>253</v>
+      </c>
       <c r="F20" t="s">
         <v>313</v>
       </c>
@@ -4523,7 +4544,7 @@
         <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P20" t="s">
         <v>23</v>
@@ -4535,7 +4556,7 @@
         <v>23</v>
       </c>
       <c r="S20" t="s">
-        <v>269</v>
+        <v>92</v>
       </c>
       <c r="T20" t="s">
         <v>23</v>
@@ -4553,16 +4574,16 @@
         <v>23</v>
       </c>
       <c r="AA20" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AB20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AD20" t="s">
         <v>93</v>
       </c>
       <c r="AE20" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="AF20" t="s">
         <v>23</v>
@@ -4571,7 +4592,7 @@
         <v>93</v>
       </c>
       <c r="AI20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AJ20" t="s">
         <v>23</v>
@@ -4589,13 +4610,13 @@
         <v>323</v>
       </c>
       <c r="AS20" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="AT20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AV20" t="s">
         <v>93</v>
@@ -4604,27 +4625,27 @@
         <v>109</v>
       </c>
       <c r="AZ20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
@@ -4636,7 +4657,7 @@
         <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P21" t="s">
         <v>23</v>
@@ -4648,7 +4669,7 @@
         <v>23</v>
       </c>
       <c r="S21" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="T21" t="s">
         <v>23</v>
@@ -4666,16 +4687,16 @@
         <v>23</v>
       </c>
       <c r="AA21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD21" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AF21" t="s">
         <v>23</v>
@@ -4683,12 +4704,13 @@
       <c r="AH21" t="s">
         <v>93</v>
       </c>
-      <c r="AI21" t="s">
-        <v>218</v>
+      <c r="AI21" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="AJ21" t="s">
         <v>23</v>
       </c>
+      <c r="AK21" s="1"/>
       <c r="AL21" t="s">
         <v>23</v>
       </c>
@@ -4699,33 +4721,33 @@
         <v>93</v>
       </c>
       <c r="AR21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AS21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AT21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AU21" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="AV21" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AX21" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AZ21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -4734,13 +4756,10 @@
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
@@ -4752,7 +4771,7 @@
         <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P22" t="s">
         <v>23</v>
@@ -4764,7 +4783,7 @@
         <v>23</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="T22" t="s">
         <v>23</v>
@@ -4782,28 +4801,31 @@
         <v>23</v>
       </c>
       <c r="AA22" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="AB22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD22" t="s">
         <v>93</v>
       </c>
       <c r="AE22" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="s">
         <v>93</v>
       </c>
       <c r="AI22" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AJ22" t="s">
-        <v>23</v>
+        <v>93</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>272</v>
       </c>
       <c r="AL22" t="s">
         <v>23</v>
@@ -4815,13 +4837,13 @@
         <v>93</v>
       </c>
       <c r="AR22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AS22" t="s">
         <v>233</v>
       </c>
       <c r="AT22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU22" t="s">
         <v>279</v>
@@ -4833,30 +4855,27 @@
         <v>109</v>
       </c>
       <c r="AZ22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>86</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
@@ -4868,7 +4887,7 @@
         <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P23" t="s">
         <v>23</v>
@@ -4898,28 +4917,31 @@
         <v>23</v>
       </c>
       <c r="AA23" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="AB23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD23" t="s">
         <v>93</v>
       </c>
       <c r="AE23" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="AF23" t="s">
         <v>23</v>
       </c>
       <c r="AH23" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AJ23" t="s">
-        <v>23</v>
+        <v>93</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>328</v>
       </c>
       <c r="AL23" t="s">
         <v>23</v>
@@ -4931,42 +4953,45 @@
         <v>93</v>
       </c>
       <c r="AR23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AS23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AT23" t="s">
         <v>323</v>
       </c>
       <c r="AU23" t="s">
-        <v>279</v>
-      </c>
-      <c r="AV23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AV23" s="14" t="s">
         <v>93</v>
       </c>
       <c r="AX23" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AZ23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BB23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>87</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>240</v>
+        <v>421</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>264</v>
       </c>
       <c r="F24" t="s">
         <v>313</v>
@@ -4981,7 +5006,7 @@
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P24" t="s">
         <v>23</v>
@@ -4993,7 +5018,7 @@
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T24" t="s">
         <v>23</v>
@@ -5004,258 +5029,248 @@
       <c r="X24" t="s">
         <v>93</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="Z24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>210</v>
+      <c r="Z24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="AB24" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG24" s="14"/>
+      <c r="AH24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL24" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM24" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS24" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT24" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>419</v>
+      </c>
+      <c r="AV24" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW24" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="AX24" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ24" t="s">
         <v>313</v>
       </c>
-      <c r="AD24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX24" s="5" t="s">
+      <c r="BB24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>312</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" t="s">
+        <v>92</v>
+      </c>
+      <c r="T25" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" t="s">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>280</v>
+      </c>
+      <c r="AV25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AZ24" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>333</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" t="s">
+      <c r="AZ25" t="s">
         <v>313</v>
       </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14" t="s">
+      <c r="BB25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
         <v>313</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="17" t="s">
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" t="s">
+        <v>312</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="R25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y25" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA25" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB25" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE25" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="AF25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG25" s="14"/>
-      <c r="AH25" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>399</v>
-      </c>
-      <c r="AJ25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS25" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT25" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU25" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="AV25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:54" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>412</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14" t="s">
+      <c r="R26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" t="s">
+        <v>92</v>
+      </c>
+      <c r="T26" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" t="s">
         <v>93</v>
       </c>
       <c r="Y26" t="s">
@@ -5265,100 +5280,95 @@
         <v>23</v>
       </c>
       <c r="AA26" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG26" s="14"/>
+      <c r="AH26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL26" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM26" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT26" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>419</v>
+      </c>
+      <c r="AV26" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW26" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="AX26" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>313</v>
       </c>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE26" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF26" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG26" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH26" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI26" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="AJ26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK26" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS26" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="AT26" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU26" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV26" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+      <c r="BB26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="14"/>
+      <c r="E27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
       <c r="J27" s="14" t="s">
         <v>23</v>
       </c>
@@ -5368,20 +5378,20 @@
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14" t="s">
         <v>23</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="R27" s="14" t="s">
         <v>23</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="T27" s="14" t="s">
         <v>23</v>
@@ -5392,44 +5402,40 @@
       </c>
       <c r="W27" s="14"/>
       <c r="X27" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB27" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE27" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="AF27" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG27" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH27" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI27" s="14" t="s">
-        <v>365</v>
+        <v>23</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>220</v>
       </c>
       <c r="AJ27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK27" s="14" t="s">
-        <v>385</v>
+        <v>93</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>331</v>
       </c>
       <c r="AL27" t="s">
         <v>23</v>
@@ -5447,28 +5453,25 @@
         <v>324</v>
       </c>
       <c r="AS27" s="14" t="s">
-        <v>391</v>
+        <v>232</v>
       </c>
       <c r="AT27" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AU27" s="14" t="s">
-        <v>394</v>
+        <v>278</v>
       </c>
       <c r="AV27" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="14" t="s">
-        <v>323</v>
+      <c r="AX27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>313</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5489,14 +5492,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="102.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="102.453125" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -5526,10 +5529,10 @@
         <v>76</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -5612,10 +5615,10 @@
         <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -5634,10 +5637,10 @@
         <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -5645,10 +5648,10 @@
         <v>73</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -5667,10 +5670,10 @@
         <v>110</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -5700,10 +5703,10 @@
         <v>75</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -5711,28 +5714,28 @@
         <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -5740,7 +5743,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -5756,29 +5759,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A880B815-0FE1-4EE5-BF5E-E80A539D77BC}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="54.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" customWidth="1"/>
+    <col min="13" max="13" width="54.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>114</v>
@@ -5808,13 +5811,13 @@
         <v>122</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
@@ -5844,12 +5847,12 @@
         <v>162</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="103" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -5905,12 +5908,12 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>130</v>
@@ -5942,12 +5945,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>131</v>
@@ -5965,7 +5968,7 @@
         <v>158</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>165</v>
@@ -5977,7 +5980,7 @@
       </c>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -6005,14 +6008,14 @@
         <v>160</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>171</v>
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="191.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="191.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>83</v>
       </c>
@@ -6043,7 +6046,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>84</v>
       </c>
@@ -6070,11 +6073,11 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>86</v>
       </c>
@@ -6106,10 +6109,10 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>175</v>
@@ -6122,7 +6125,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>87</v>
       </c>
@@ -6145,7 +6148,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>181</v>
       </c>
@@ -6169,16 +6172,16 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>148</v>
       </c>
@@ -6209,7 +6212,7 @@
       </c>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>149</v>
       </c>
@@ -6239,12 +6242,12 @@
         <v>160</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>150</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>157</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>145</v>
@@ -6274,29 +6277,29 @@
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -6306,77 +6309,77 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -6389,33 +6392,33 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
